--- a/ChameleonData/StrideTimes/StrideOutputs/Snow_3_5_4_18_GH019825_Event_7.xlsx
+++ b/ChameleonData/StrideTimes/StrideOutputs/Snow_3_5_4_18_GH019825_Event_7.xlsx
@@ -7,10 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB hindlimb" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB ankle" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC hindlimb" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC ankle" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_forelimb" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_forelimb" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_wrist" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_wrist" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_hindlimb" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_hindlimb" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_ankle" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_ankle" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +432,79 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +520,57 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>stride_1_angle_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_max_hip_height_height</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_min_hip_height_height</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>stride_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_A</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_B</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_max_hip_height_height</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_min_hip_height_height</t>
         </is>
       </c>
     </row>
@@ -453,10 +579,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.813100981435245</v>
+        <v>84.70139150942286</v>
       </c>
       <c r="C2" t="n">
-        <v>-55.90349916590095</v>
+        <v>84.70139150942286</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-59.49455312142811</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25.21695241232941</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01938897414383283</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.01381748381591787</v>
+      </c>
+      <c r="H2" t="n">
+        <v>86.67180374841972</v>
+      </c>
+      <c r="I2" t="n">
+        <v>86.67180374841972</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-46.57795403578247</v>
+      </c>
+      <c r="K2" t="n">
+        <v>62.52724532470686</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.02868020127842592</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.02198448492667815</v>
       </c>
     </row>
     <row r="3">
@@ -464,2415 +620,2082 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.823387144318753</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-55.78776043901341</v>
-      </c>
+        <v>84.60680594143518</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>86.72404500390545</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.73662345070432</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-56.32545574078144</v>
-      </c>
+        <v>82.51341441851454</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>86.72816107829716</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.595685965652459</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-56.18429647389931</v>
-      </c>
+        <v>82.50256580190828</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>88.12225608919638</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.9787645184556802</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-58.63031081770107</v>
-      </c>
+        <v>79.65945944019306</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>88.25470164693014</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.370027132166739</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-58.67354509004399</v>
-      </c>
+        <v>79.65701657738121</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>89.77779051270123</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-23.45887073745083</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-59.67422022768521</v>
-      </c>
+        <v>77.37088799636138</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>89.49663399097352</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-21.29325554433637</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-59.53246077517152</v>
-      </c>
+        <v>77.26801436146594</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>87.87910013282594</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-21.29325554433637</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-59.7994477803395</v>
-      </c>
+        <v>73.14115712921065</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>87.84118233105687</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04990923110343473</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-60.0125939785386</v>
-      </c>
+        <v>72.97786875121899</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>86.00332401215468</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.01478461481403</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-59.4878150381147</v>
-      </c>
+        <v>70.41984865811465</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>86.0520713728162</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.01478461481403</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-59.53923755909226</v>
-      </c>
+        <v>70.36946383152373</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>85.02221107181312</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>22.26700677447332</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-60.9242412413271</v>
-      </c>
+        <v>70.42589055503699</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>84.98900810093018</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>22.26700677447332</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-60.76805549887251</v>
-      </c>
+        <v>70.50822690144841</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>84.65283423327809</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-37.42993493990507</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-60.52644776054176</v>
-      </c>
+        <v>71.27668612072152</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>84.71636553663987</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-57.45742903991869</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-60.6272409664653</v>
-      </c>
+        <v>71.28620748821486</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>85.25893383287804</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-36.11630647800042</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-61.56723011970244</v>
-      </c>
+        <v>72.95020739302868</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>85.06742257838056</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2593591562458493</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-61.13833912677781</v>
-      </c>
+        <v>72.92328300141442</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>84.66278825832615</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-9.803155342558496</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-59.46395873201885</v>
-      </c>
+        <v>72.22250429894777</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>84.65528057006628</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-9.691941708490678</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-59.83359216833455</v>
-      </c>
+        <v>72.16507109984735</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>84.29744611925975</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-9.717690016727905</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-56.00291732554621</v>
-      </c>
+        <v>72.39508583110597</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>84.39871093356361</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-9.793789780502022</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-56.02107726996187</v>
-      </c>
+        <v>72.52294972378137</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>84.76417669161603</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-5.021686963426824</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-50.63896377886741</v>
-      </c>
+        <v>72.77409874233992</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>84.71743987780148</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-5.011946846979642</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-50.95172752460162</v>
-      </c>
+        <v>72.71989952002684</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>84.96188560429231</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-8.499792590459338</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-42.1152150075125</v>
-      </c>
+        <v>73.2171245067985</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>85.01745725645898</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-4.379956696285656</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-42.87665576049957</v>
-      </c>
+        <v>73.19777349149464</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>85.99460609027756</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.76846728331745</v>
-      </c>
-      <c r="C28" t="n">
-        <v>35.04648650554257</v>
-      </c>
+        <v>73.70507755799487</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>86.24906721468408</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-2.667881476745979</v>
-      </c>
-      <c r="C29" t="n">
-        <v>38.5073318646151</v>
-      </c>
+        <v>73.9169419797099</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>86.50655218334197</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.4579485950102057</v>
-      </c>
-      <c r="C30" t="n">
-        <v>41.34709457093457</v>
-      </c>
+        <v>72.34456500760221</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>86.60888488038511</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.7551370633089141</v>
-      </c>
-      <c r="C31" t="n">
-        <v>25.91806478844422</v>
-      </c>
+        <v>72.33266640929173</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>88.32970473925621</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.740496673380379</v>
-      </c>
-      <c r="C32" t="n">
-        <v>61.90351928700817</v>
-      </c>
+        <v>72.03787610138731</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>88.33684560591853</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.847248751807818</v>
-      </c>
-      <c r="C33" t="n">
-        <v>61.85549630595675</v>
-      </c>
+        <v>72.15595611021008</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>89.54065420025732</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-2.414767048921292</v>
-      </c>
-      <c r="C34" t="n">
-        <v>57.34581321256374</v>
-      </c>
+        <v>72.40100845332449</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>89.63460272129089</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-2.444602017515497</v>
-      </c>
-      <c r="C35" t="n">
-        <v>56.60187064612245</v>
-      </c>
+        <v>72.60030665178175</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>88.19207400763132</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.455531908653342</v>
-      </c>
-      <c r="C36" t="n">
-        <v>58.57246749334608</v>
-      </c>
+        <v>74.37675850814513</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>88.01033938444787</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-8.439890801703635</v>
-      </c>
-      <c r="C37" t="n">
-        <v>58.4697870678304</v>
-      </c>
+        <v>74.50635397056676</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>83.44069813103206</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-8.590867177464283</v>
-      </c>
-      <c r="C38" t="n">
-        <v>60.47378368901541</v>
-      </c>
+        <v>77.68534693682189</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>83.14904694259558</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2904419115781748</v>
-      </c>
-      <c r="C39" t="n">
-        <v>60.48773537864912</v>
-      </c>
+        <v>77.96732629706506</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>78.76398613036064</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3300897812535779</v>
-      </c>
-      <c r="C40" t="n">
-        <v>61.93209339911357</v>
-      </c>
+        <v>84.97801061837897</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>78.31328100141641</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8198290462073127</v>
-      </c>
-      <c r="C41" t="n">
-        <v>62.05397464996074</v>
-      </c>
+        <v>85.39937478659758</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>74.15939299301881</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8221232096588162</v>
-      </c>
-      <c r="C42" t="n">
-        <v>64.8008353450126</v>
-      </c>
+        <v>87.68011466156906</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>74.03477424484994</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-35.23110827146795</v>
-      </c>
-      <c r="C43" t="n">
-        <v>65.11068058865179</v>
-      </c>
+        <v>87.38298170248954</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>69.57707780642076</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-32.58541742790008</v>
-      </c>
-      <c r="C44" t="n">
-        <v>70.36536514646455</v>
-      </c>
+        <v>79.53596771892694</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>69.28931084604739</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-65.62035419669134</v>
-      </c>
-      <c r="C45" t="n">
-        <v>70.3836355960369</v>
-      </c>
+        <v>79.42830069845091</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>64.93519390307722</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-49.9604977813726</v>
-      </c>
-      <c r="C46" t="n">
-        <v>77.04122445868099</v>
-      </c>
+        <v>63.74297105203106</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>64.64927513877281</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>8.046918393493083</v>
-      </c>
-      <c r="C47" t="n">
-        <v>76.9762962349588</v>
-      </c>
+        <v>63.97092118991472</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>62.48761498695993</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.3082912018819214</v>
-      </c>
-      <c r="C48" t="n">
-        <v>78.39530815228663</v>
-      </c>
+        <v>43.96985330847297</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>62.56687566245379</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>71.14209356809803</v>
-      </c>
-      <c r="C49" t="n">
-        <v>78.4676718635811</v>
-      </c>
+        <v>45.19028299183483</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>61.8503880730957</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>70.59794380347631</v>
-      </c>
-      <c r="C50" t="n">
-        <v>82.75819337370254</v>
-      </c>
+        <v>24.31269761601617</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>61.91649710241612</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>70.53106551742334</v>
-      </c>
-      <c r="C51" t="n">
-        <v>82.92052020902665</v>
-      </c>
+        <v>26.12120720864266</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>65.15259605246754</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>70.81633023596845</v>
-      </c>
-      <c r="C52" t="n">
-        <v>84.70139150942286</v>
-      </c>
+        <v>11.27524483629914</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>65.15639005819484</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-86.68487598201708</v>
-      </c>
-      <c r="C53" t="n">
-        <v>84.60680594143518</v>
-      </c>
+        <v>10.841009783752</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>64.96265825366113</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-82.58860204057744</v>
-      </c>
-      <c r="C54" t="n">
-        <v>82.51341441851454</v>
-      </c>
+        <v>-4.842012338676641</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>65.21576820912644</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-84.87414158002422</v>
-      </c>
-      <c r="C55" t="n">
-        <v>82.50256580190828</v>
-      </c>
+        <v>-4.275492223236708</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>62.14338029520427</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-84.88060739781153</v>
-      </c>
-      <c r="C56" t="n">
-        <v>79.65945944019306</v>
-      </c>
+        <v>-18.60345030677122</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>62.16914520129696</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-82.48200307534184</v>
-      </c>
-      <c r="C57" t="n">
-        <v>79.65701657738121</v>
-      </c>
+        <v>-16.94054657952904</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>57.58170362530709</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-85.45733792497772</v>
-      </c>
-      <c r="C58" t="n">
-        <v>77.37088799636138</v>
-      </c>
+        <v>-30.66516236321197</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>57.87149045531433</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-84.68924179541028</v>
-      </c>
-      <c r="C59" t="n">
-        <v>77.26801436146594</v>
-      </c>
+        <v>-31.00189273971657</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>52.37897032467996</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-84.88124501090523</v>
-      </c>
-      <c r="C60" t="n">
-        <v>73.14115712921065</v>
-      </c>
+        <v>-36.82293199268421</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>52.38608722065231</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-85.82308660150183</v>
-      </c>
-      <c r="C61" t="n">
-        <v>72.97786875121899</v>
-      </c>
+        <v>-37.01292816195055</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>43.91136598076109</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-61.04211050142293</v>
-      </c>
-      <c r="C62" t="n">
-        <v>70.41984865811465</v>
-      </c>
+        <v>-44.05804052095455</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>43.87754229123808</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-61.03928352611138</v>
-      </c>
-      <c r="C63" t="n">
-        <v>70.36946383152373</v>
-      </c>
+        <v>-43.73864659770299</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>27.64733576306618</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-84.04089388758007</v>
-      </c>
-      <c r="C64" t="n">
-        <v>70.42589055503699</v>
-      </c>
+        <v>-49.67348972667541</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>28.28893727112809</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-83.72448693708409</v>
-      </c>
-      <c r="C65" t="n">
-        <v>70.50822690144841</v>
-      </c>
+        <v>-49.49867275875489</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>11.43748248744768</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-84.28564935202758</v>
-      </c>
-      <c r="C66" t="n">
-        <v>71.27668612072152</v>
-      </c>
+        <v>-55.3259108236891</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>11.85771407189167</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-84.35302938029501</v>
-      </c>
-      <c r="C67" t="n">
-        <v>71.28620748821486</v>
-      </c>
+        <v>-55.70034027205391</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>-3.297218908709971</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-86.24509571094288</v>
-      </c>
-      <c r="C68" t="n">
-        <v>72.95020739302868</v>
-      </c>
+        <v>-56.13878475904117</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>-2.976055734777383</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-87.31195541862357</v>
-      </c>
-      <c r="C69" t="n">
-        <v>72.92328300141442</v>
-      </c>
+        <v>-56.49498594889496</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>-13.27798051502107</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-63.39542036607464</v>
-      </c>
-      <c r="C70" t="n">
-        <v>72.22250429894777</v>
-      </c>
+        <v>-54.72823776855105</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>-12.44143289842254</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-62.12836386382358</v>
-      </c>
-      <c r="C71" t="n">
-        <v>72.16507109984735</v>
-      </c>
+        <v>-54.37497308562664</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="n">
+        <v>-20.270296560691</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>88.61141211302932</v>
-      </c>
-      <c r="C72" t="n">
-        <v>72.39508583110597</v>
-      </c>
+        <v>-53.97708523142407</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="n">
+        <v>-20.58407834029112</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>88.86969846625308</v>
-      </c>
-      <c r="C73" t="n">
-        <v>72.52294972378137</v>
-      </c>
+        <v>-53.88707663213797</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>-24.05741507979378</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>70.26861281399957</v>
-      </c>
-      <c r="C74" t="n">
-        <v>72.77409874233992</v>
-      </c>
+        <v>-53.91105881361477</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>-23.69879208882183</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>67.73878451444671</v>
-      </c>
-      <c r="C75" t="n">
-        <v>72.71989952002684</v>
-      </c>
+        <v>-53.59613106748473</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>-31.29798653846589</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>89.17677229633078</v>
-      </c>
-      <c r="C76" t="n">
-        <v>73.2171245067985</v>
-      </c>
+        <v>-54.27273116796327</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="n">
+        <v>-31.81877958310031</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>44.82652706394076</v>
-      </c>
-      <c r="C77" t="n">
-        <v>73.19777349149464</v>
-      </c>
+        <v>-53.83617338921148</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="n">
+        <v>-35.44263768225179</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-89.78265258216364</v>
-      </c>
-      <c r="C78" t="n">
-        <v>73.70507755799487</v>
-      </c>
+        <v>-54.48923118567249</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="n">
+        <v>-35.22239792650911</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-75.36618535964341</v>
-      </c>
-      <c r="C79" t="n">
-        <v>73.9169419797099</v>
-      </c>
+        <v>-54.30418217298171</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>-38.06707700133763</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-85.12154577825811</v>
-      </c>
-      <c r="C80" t="n">
-        <v>72.34456500760221</v>
-      </c>
+        <v>-56.02891314717306</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>-38.07515284608602</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-76.76353297093486</v>
-      </c>
-      <c r="C81" t="n">
-        <v>72.33266640929173</v>
-      </c>
+        <v>-55.75592789731905</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="n">
+        <v>-39.11075651442811</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-77.31921665362906</v>
-      </c>
-      <c r="C82" t="n">
-        <v>72.03787610138731</v>
-      </c>
+        <v>-56.93325252917329</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>-39.11485837909118</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-77.31023038001956</v>
-      </c>
-      <c r="C83" t="n">
-        <v>72.15595611021008</v>
-      </c>
+        <v>-56.60454692617016</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="n">
+        <v>-38.43427012066498</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-77.34204834325651</v>
-      </c>
-      <c r="C84" t="n">
-        <v>72.40100845332449</v>
-      </c>
+        <v>-57.39496519100906</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="n">
+        <v>-37.94484707195522</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-77.34060372662948</v>
-      </c>
-      <c r="C85" t="n">
-        <v>72.60030665178175</v>
-      </c>
+        <v>-57.22928995381007</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>-39.8552490900938</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-77.21878455842729</v>
-      </c>
-      <c r="C86" t="n">
-        <v>74.37675850814513</v>
-      </c>
+        <v>-58.05953726894734</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="n">
+        <v>-39.80507052433335</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-77.20982408512609</v>
-      </c>
-      <c r="C87" t="n">
-        <v>74.50635397056676</v>
-      </c>
+        <v>-57.86046982725096</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="n">
+        <v>-39.56589011578822</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-77.11629199877675</v>
-      </c>
-      <c r="C88" t="n">
-        <v>77.68534693682189</v>
-      </c>
+        <v>-59.02890576606126</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>-39.24319727735885</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-77.13160461658069</v>
-      </c>
-      <c r="C89" t="n">
-        <v>77.96732629706506</v>
-      </c>
+        <v>-59.0354168782392</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>-39.00430796659446</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-77.18175215953931</v>
-      </c>
-      <c r="C90" t="n">
-        <v>84.97801061837897</v>
-      </c>
+        <v>-60.09747542100254</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="n">
+        <v>-38.7896826090613</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-77.18493255637003</v>
-      </c>
-      <c r="C91" t="n">
-        <v>85.39937478659758</v>
-      </c>
+        <v>-60.92048187136086</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="n">
+        <v>-43.33819750066107</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-77.76669178588205</v>
-      </c>
-      <c r="C92" t="n">
-        <v>87.68011466156906</v>
-      </c>
+        <v>-60.37269713797011</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="n">
+        <v>-43.16381793576182</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-77.76390570272794</v>
-      </c>
-      <c r="C93" t="n">
-        <v>87.38298170248954</v>
-      </c>
+        <v>-60.154217613181</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="n">
+        <v>-42.58000625054077</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-77.78670106548103</v>
-      </c>
-      <c r="C94" t="n">
-        <v>79.53596771892694</v>
-      </c>
+        <v>-60.51449852365887</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="n">
+        <v>-42.36807699324409</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-77.7376918664646</v>
+        <v>-60.28615443317663</v>
       </c>
       <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="n">
+        <v>-43.25512352570063</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-77.67806660499839</v>
+        <v>-60.49175626213652</v>
       </c>
       <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="n">
+        <v>-43.26100811364081</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-77.67587406057339</v>
+        <v>-60.35762908363974</v>
       </c>
       <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="n">
+        <v>-44.64705651785268</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-77.54815882318518</v>
+        <v>-59.63992297867269</v>
       </c>
       <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="n">
+        <v>-44.60083841040729</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-77.46432948396307</v>
+        <v>-59.49455312142811</v>
       </c>
       <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="n">
+        <v>-45.71296777953222</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
-        <v>-77.46432948396307</v>
-      </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="n">
+        <v>-45.81108335671887</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
-        <v>-77.47689222901693</v>
-      </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>38.05161807774924</v>
-      </c>
-      <c r="C102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>38.05161807774924</v>
-      </c>
-      <c r="C103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>43.4931913256011</v>
-      </c>
-      <c r="C104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>83.66072380952143</v>
-      </c>
-      <c r="C105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>60.92208187844638</v>
-      </c>
-      <c r="C106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>-76.95874139758349</v>
-      </c>
-      <c r="C107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>54.2694991943166</v>
-      </c>
-      <c r="C108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>89.4901396273571</v>
-      </c>
-      <c r="C109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>89.72736661153667</v>
-      </c>
-      <c r="C110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>74.00073825287993</v>
-      </c>
-      <c r="C111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>85.38949403249578</v>
-      </c>
-      <c r="C112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>89.51551059112104</v>
-      </c>
-      <c r="C113" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="n">
+        <v>-46.57795403578247</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C113"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>stride_1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>stride_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-27.24701149164325</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-82.0079862808356</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-27.26870135044542</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-82.00730248902985</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-27.71421393469612</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-81.8104376993293</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-26.76524035526542</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-81.80912924742638</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-25.25688649472096</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-81.69517468815165</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-25.22142446537055</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-81.6809349147012</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-78.8392748588783</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-81.57516161243292</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-78.56854341396132</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-81.57471438116717</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-78.56854341396132</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-81.45155529979498</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-59.11472922118057</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-81.3832578309826</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-58.75132688699567</v>
-      </c>
-      <c r="C12" t="n">
-        <v>53.41396301187786</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-59.10218192324049</v>
-      </c>
-      <c r="C13" t="n">
-        <v>53.42514265622296</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-53.01054109786642</v>
-      </c>
-      <c r="C14" t="n">
-        <v>54.32029389240294</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-49.9043615335646</v>
-      </c>
-      <c r="C15" t="n">
-        <v>54.39892338397618</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-33.10420213787454</v>
-      </c>
-      <c r="C16" t="n">
-        <v>56.82947939311103</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-77.57609009468361</v>
-      </c>
-      <c r="C17" t="n">
-        <v>57.04063897141344</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-78.33391095861077</v>
-      </c>
-      <c r="C18" t="n">
-        <v>57.82153134078397</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-59.24685734102293</v>
-      </c>
-      <c r="C19" t="n">
-        <v>57.77465642341078</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>-77.56266323293224</v>
-      </c>
-      <c r="C20" t="n">
-        <v>57.37883155576569</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>-77.59975552318537</v>
-      </c>
-      <c r="C21" t="n">
-        <v>57.73416489385821</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-79.24955612556425</v>
-      </c>
-      <c r="C22" t="n">
-        <v>55.70478224918678</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>-79.99737711633006</v>
-      </c>
-      <c r="C23" t="n">
-        <v>55.61579046102752</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>-78.80359119296955</v>
-      </c>
-      <c r="C24" t="n">
-        <v>52.67779982720997</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>-80.98664040700963</v>
-      </c>
-      <c r="C25" t="n">
-        <v>52.84435532820854</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-55.41633267986536</v>
-      </c>
-      <c r="C26" t="n">
-        <v>50.50274672335614</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>-81.42245540114861</v>
-      </c>
-      <c r="C27" t="n">
-        <v>50.67529895889301</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>-86.77697263139702</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-74.85337537231956</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>-87.2459523577465</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-74.7370804245341</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>-86.46146407264818</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-72.84662589009186</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>-11.69677520262162</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-72.84065127053053</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>-11.58442146996098</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-72.57104310810787</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>-84.43582239888461</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-72.57086954730829</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>-27.27609947173637</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-32.14807901750866</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>-26.1632764031073</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-32.14688005143259</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-27.17131602293978</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-24.92676187557425</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>-25.39059591047164</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-24.8920878091628</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>-27.99178739250773</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-39.87867990328779</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>-80.60205464287586</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-39.88023072839471</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>-80.12461510586019</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-49.15513832458308</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>-81.3153395011613</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-49.20342565270242</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>-58.82110649822511</v>
-      </c>
-      <c r="C42" t="n">
-        <v>-56.91664850468189</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>-79.8026394270762</v>
-      </c>
-      <c r="C43" t="n">
-        <v>-56.98800640459991</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>-79.34039142919478</v>
-      </c>
-      <c r="C44" t="n">
-        <v>-58.31248280654309</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>-79.86757538089562</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-58.36117811704544</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>-80.05826360598142</v>
-      </c>
-      <c r="C46" t="n">
-        <v>-56.57951400304759</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>-80.10696396949957</v>
-      </c>
-      <c r="C47" t="n">
-        <v>-56.65931876033735</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>-80.65342475605237</v>
-      </c>
-      <c r="C48" t="n">
-        <v>-56.06496894085844</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-79.3736109936478</v>
-      </c>
-      <c r="C49" t="n">
-        <v>-56.03372841252955</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>-42.77755366426152</v>
-      </c>
-      <c r="C50" t="n">
-        <v>-55.84764728955864</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>-44.24811562751153</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-55.82395183695616</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>-44.43229223134642</v>
-      </c>
-      <c r="C52" t="n">
-        <v>-51.80318053199411</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>72.11364027012476</v>
-      </c>
-      <c r="C53" t="n">
-        <v>-51.78350232992381</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>72.06650021155511</v>
-      </c>
-      <c r="C54" t="n">
-        <v>-50.18643175523972</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>72.05656350045514</v>
-      </c>
-      <c r="C55" t="n">
-        <v>-50.15061074226291</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>71.87185299249447</v>
-      </c>
-      <c r="C56" t="n">
-        <v>-48.56160335337678</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>71.88805643804398</v>
-      </c>
-      <c r="C57" t="n">
-        <v>-48.52956589081603</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>72.393247747522</v>
-      </c>
-      <c r="C58" t="n">
-        <v>-46.76177334592982</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>72.4278977090031</v>
-      </c>
-      <c r="C59" t="n">
-        <v>-46.73320175808243</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>74.91198752722711</v>
-      </c>
-      <c r="C60" t="n">
-        <v>-46.0298502276587</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>75.04342637639179</v>
-      </c>
-      <c r="C61" t="n">
-        <v>-46.06918106878895</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>75.11747396184299</v>
-      </c>
-      <c r="C62" t="n">
-        <v>-45.63195722976836</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>75.16131564788382</v>
-      </c>
-      <c r="C63" t="n">
-        <v>-45.61010472998542</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>74.02994152696334</v>
-      </c>
-      <c r="C64" t="n">
-        <v>-45.45241287215084</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>74.04308699103331</v>
-      </c>
-      <c r="C65" t="n">
-        <v>-45.35929253678979</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>74.12586144454211</v>
-      </c>
-      <c r="C66" t="n">
-        <v>-43.91203595449601</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>74.13045239267093</v>
-      </c>
-      <c r="C67" t="n">
-        <v>-43.83589396631145</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>74.89856051111772</v>
-      </c>
-      <c r="C68" t="n">
-        <v>-42.2162879168136</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>74.85346756032514</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-41.95703779563953</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>39.58697825535369</v>
-      </c>
-      <c r="C70" t="n">
-        <v>-40.08895228430933</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>37.47072164546866</v>
-      </c>
-      <c r="C71" t="n">
-        <v>-39.97404278969634</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>37.47072164546866</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-38.82708944509206</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>39.65659798160637</v>
-      </c>
-      <c r="C73" t="n">
-        <v>-38.87923288263317</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>34.5149351992789</v>
-      </c>
-      <c r="C74" t="n">
-        <v>-37.27456263342322</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>34.36334730421613</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-37.25103263320234</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>27.14499118201052</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-35.06382404874029</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>27.11931662980397</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-35.07339618602236</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>49.54943071577319</v>
-      </c>
-      <c r="C78" t="n">
-        <v>-32.57185632950313</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>49.5233250479875</v>
-      </c>
-      <c r="C79" t="n">
-        <v>-32.52030449343874</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>32.52617118091328</v>
-      </c>
-      <c r="C80" t="n">
-        <v>-29.80112795823715</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>31.7684219572328</v>
-      </c>
-      <c r="C81" t="n">
-        <v>-29.80954346277509</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>72.28991943552496</v>
-      </c>
-      <c r="C82" t="n">
-        <v>-25.90511447781992</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>72.30295019141715</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-25.7872529024531</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>77.10210841344121</v>
-      </c>
-      <c r="C84" t="n">
-        <v>-21.73937150672947</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>77.09773654687724</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-21.53686508741237</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>76.99290322088686</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-17.43822883426093</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>76.98713023875298</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-17.29218091532438</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>76.87740441374595</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-11.88024807515913</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>76.87698586429254</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-11.36350844844438</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>76.91588363902075</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-6.431856228652829</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>76.90403315504275</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-6.202773299271857</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>77.48049035971201</v>
-      </c>
-      <c r="C92" t="n">
-        <v>-1.153420687143856</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>77.45358250513256</v>
-      </c>
-      <c r="C93" t="n">
-        <v>-1.214163770580678</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>77.42400943065888</v>
-      </c>
-      <c r="C94" t="n">
-        <v>3.066644226087668</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>77.37804651737555</v>
-      </c>
-      <c r="C95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>77.2939461386877</v>
-      </c>
-      <c r="C96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>77.28049287932537</v>
-      </c>
-      <c r="C97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>77.0817845399511</v>
-      </c>
-      <c r="C98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>77.08431892560337</v>
-      </c>
-      <c r="C99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>76.22276014676306</v>
-      </c>
-      <c r="C100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>75.78762917837804</v>
-      </c>
-      <c r="C101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>-89.50462446151222</v>
-      </c>
-      <c r="C102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>-89.50489448461087</v>
-      </c>
-      <c r="C103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>-89.60845103642419</v>
-      </c>
-      <c r="C104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>-89.62459876993795</v>
-      </c>
-      <c r="C105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>-89.72426752529877</v>
-      </c>
-      <c r="C106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>-89.88318788076778</v>
-      </c>
-      <c r="C107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>-89.88036367837307</v>
-      </c>
-      <c r="C108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>-89.98867120795576</v>
-      </c>
-      <c r="C109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>-89.8687158317839</v>
-      </c>
-      <c r="C110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>-89.88752432153349</v>
-      </c>
-      <c r="C111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>-89.67218402513016</v>
-      </c>
-      <c r="C112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>-89.25711661216131</v>
-      </c>
-      <c r="C113" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2903,10 +2726,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.813100981435245</v>
+        <v>84.70139150942286</v>
       </c>
       <c r="C2" t="n">
-        <v>-55.90349916590095</v>
+        <v>86.67180374841972</v>
       </c>
     </row>
     <row r="3">
@@ -2914,10 +2737,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.73662345070432</v>
+        <v>84.60680594143518</v>
       </c>
       <c r="C3" t="n">
-        <v>-55.78776043901341</v>
+        <v>86.72404500390545</v>
       </c>
     </row>
     <row r="4">
@@ -2925,10 +2748,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.595685965652459</v>
+        <v>82.50256580190828</v>
       </c>
       <c r="C4" t="n">
-        <v>-56.18429647389931</v>
+        <v>88.12225608919638</v>
       </c>
     </row>
     <row r="5">
@@ -2936,10 +2759,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.370027132166739</v>
+        <v>79.65945944019306</v>
       </c>
       <c r="C5" t="n">
-        <v>-58.63031081770107</v>
+        <v>88.25470164693014</v>
       </c>
     </row>
     <row r="6">
@@ -2947,10 +2770,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-23.45887073745083</v>
+        <v>79.65701657738121</v>
       </c>
       <c r="C6" t="n">
-        <v>-59.67422022768521</v>
+        <v>89.77779051270123</v>
       </c>
     </row>
     <row r="7">
@@ -2958,10 +2781,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-21.29325554433637</v>
+        <v>77.26801436146594</v>
       </c>
       <c r="C7" t="n">
-        <v>-59.53246077517152</v>
+        <v>87.87910013282594</v>
       </c>
     </row>
     <row r="8">
@@ -2969,10 +2792,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.01478461481403</v>
+        <v>73.14115712921065</v>
       </c>
       <c r="C8" t="n">
-        <v>-59.7994477803395</v>
+        <v>87.84118233105687</v>
       </c>
     </row>
     <row r="9">
@@ -2980,10 +2803,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.01478461481403</v>
+        <v>72.97786875121899</v>
       </c>
       <c r="C9" t="n">
-        <v>-59.4878150381147</v>
+        <v>86.00332401215468</v>
       </c>
     </row>
     <row r="10">
@@ -2991,10 +2814,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.26700677447332</v>
+        <v>70.41984865811465</v>
       </c>
       <c r="C10" t="n">
-        <v>-59.53923755909226</v>
+        <v>85.02221107181312</v>
       </c>
     </row>
     <row r="11">
@@ -3002,10 +2825,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-37.42993493990507</v>
+        <v>70.42589055503699</v>
       </c>
       <c r="C11" t="n">
-        <v>-60.9242412413271</v>
+        <v>84.98900810093018</v>
       </c>
     </row>
     <row r="12">
@@ -3013,10 +2836,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-36.11630647800042</v>
+        <v>70.50822690144841</v>
       </c>
       <c r="C12" t="n">
-        <v>-60.52644776054176</v>
+        <v>84.71636553663987</v>
       </c>
     </row>
     <row r="13">
@@ -3024,10 +2847,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2593591562458493</v>
+        <v>71.27668612072152</v>
       </c>
       <c r="C13" t="n">
-        <v>-60.6272409664653</v>
+        <v>85.25893383287804</v>
       </c>
     </row>
     <row r="14">
@@ -3035,10 +2858,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-9.691941708490678</v>
+        <v>72.95020739302868</v>
       </c>
       <c r="C14" t="n">
-        <v>-61.13833912677781</v>
+        <v>85.06742257838056</v>
       </c>
     </row>
     <row r="15">
@@ -3046,10 +2869,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-9.793789780502022</v>
+        <v>72.92328300141442</v>
       </c>
       <c r="C15" t="n">
-        <v>-59.46395873201885</v>
+        <v>84.65528057006628</v>
       </c>
     </row>
     <row r="16">
@@ -3057,10 +2880,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-5.021686963426824</v>
+        <v>72.22250429894777</v>
       </c>
       <c r="C16" t="n">
-        <v>-59.83359216833455</v>
+        <v>84.29744611925975</v>
       </c>
     </row>
     <row r="17">
@@ -3068,10 +2891,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-8.499792590459338</v>
+        <v>72.39508583110597</v>
       </c>
       <c r="C17" t="n">
-        <v>-56.02107726996187</v>
+        <v>84.39871093356361</v>
       </c>
     </row>
     <row r="18">
@@ -3079,10 +2902,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-4.379956696285656</v>
+        <v>72.52294972378137</v>
       </c>
       <c r="C18" t="n">
-        <v>-50.63896377886741</v>
+        <v>84.71743987780148</v>
       </c>
     </row>
     <row r="19">
@@ -3090,10 +2913,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.667881476745979</v>
+        <v>72.77409874233992</v>
       </c>
       <c r="C19" t="n">
-        <v>-50.95172752460162</v>
+        <v>84.96188560429231</v>
       </c>
     </row>
     <row r="20">
@@ -3101,10 +2924,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.7551370633089141</v>
+        <v>73.2171245067985</v>
       </c>
       <c r="C20" t="n">
-        <v>-42.87665576049957</v>
+        <v>85.01745725645898</v>
       </c>
     </row>
     <row r="21">
@@ -3112,10 +2935,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.740496673380379</v>
+        <v>73.19777349149464</v>
       </c>
       <c r="C21" t="n">
-        <v>35.04648650554257</v>
+        <v>86.24906721468408</v>
       </c>
     </row>
     <row r="22">
@@ -3123,10 +2946,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-2.414767048921292</v>
+        <v>73.70507755799487</v>
       </c>
       <c r="C22" t="n">
-        <v>41.34709457093457</v>
+        <v>86.50655218334197</v>
       </c>
     </row>
     <row r="23">
@@ -3134,10 +2957,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-2.444602017515497</v>
+        <v>72.34456500760221</v>
       </c>
       <c r="C23" t="n">
-        <v>25.91806478844422</v>
+        <v>86.60888488038511</v>
       </c>
     </row>
     <row r="24">
@@ -3145,10 +2968,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-8.439890801703635</v>
+        <v>72.33266640929173</v>
       </c>
       <c r="C24" t="n">
-        <v>61.90351928700817</v>
+        <v>88.33684560591853</v>
       </c>
     </row>
     <row r="25">
@@ -3156,10 +2979,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2904419115781748</v>
+        <v>72.03787610138731</v>
       </c>
       <c r="C25" t="n">
-        <v>57.34581321256374</v>
+        <v>89.54065420025732</v>
       </c>
     </row>
     <row r="26">
@@ -3167,10 +2990,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3300897812535779</v>
+        <v>72.15595611021008</v>
       </c>
       <c r="C26" t="n">
-        <v>56.60187064612245</v>
+        <v>89.63460272129089</v>
       </c>
     </row>
     <row r="27">
@@ -3178,10 +3001,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8221232096588162</v>
+        <v>72.60030665178175</v>
       </c>
       <c r="C27" t="n">
-        <v>58.57246749334608</v>
+        <v>88.01033938444787</v>
       </c>
     </row>
     <row r="28">
@@ -3189,10 +3012,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-35.23110827146795</v>
+        <v>74.37675850814513</v>
       </c>
       <c r="C28" t="n">
-        <v>60.47378368901541</v>
+        <v>83.44069813103206</v>
       </c>
     </row>
     <row r="29">
@@ -3200,10 +3023,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-65.62035419669134</v>
+        <v>74.50635397056676</v>
       </c>
       <c r="C29" t="n">
-        <v>60.48773537864912</v>
+        <v>83.14904694259558</v>
       </c>
     </row>
     <row r="30">
@@ -3211,10 +3034,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>8.046918393493083</v>
+        <v>77.96732629706506</v>
       </c>
       <c r="C30" t="n">
-        <v>62.05397464996074</v>
+        <v>78.31328100141641</v>
       </c>
     </row>
     <row r="31">
@@ -3222,10 +3045,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3082912018819214</v>
+        <v>84.97801061837897</v>
       </c>
       <c r="C31" t="n">
-        <v>64.8008353450126</v>
+        <v>74.15939299301881</v>
       </c>
     </row>
     <row r="32">
@@ -3233,10 +3056,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>70.59794380347631</v>
+        <v>85.39937478659758</v>
       </c>
       <c r="C32" t="n">
-        <v>65.11068058865179</v>
+        <v>74.03477424484994</v>
       </c>
     </row>
     <row r="33">
@@ -3244,10 +3067,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>70.53106551742334</v>
+        <v>87.38298170248954</v>
       </c>
       <c r="C33" t="n">
-        <v>70.3836355960369</v>
+        <v>69.28931084604739</v>
       </c>
     </row>
     <row r="34">
@@ -3255,10 +3078,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-86.68487598201708</v>
+        <v>79.53596771892694</v>
       </c>
       <c r="C34" t="n">
-        <v>77.04122445868099</v>
+        <v>64.93519390307722</v>
       </c>
     </row>
     <row r="35">
@@ -3266,10 +3089,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-82.58860204057744</v>
+        <v>79.42830069845091</v>
       </c>
       <c r="C35" t="n">
-        <v>78.39530815228663</v>
+        <v>62.48761498695993</v>
       </c>
     </row>
     <row r="36">
@@ -3277,10 +3100,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-84.88060739781153</v>
+        <v>63.97092118991472</v>
       </c>
       <c r="C36" t="n">
-        <v>78.4676718635811</v>
+        <v>62.56687566245379</v>
       </c>
     </row>
     <row r="37">
@@ -3288,10 +3111,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-85.45733792497772</v>
+        <v>43.96985330847297</v>
       </c>
       <c r="C37" t="n">
-        <v>82.75819337370254</v>
+        <v>61.8503880730957</v>
       </c>
     </row>
     <row r="38">
@@ -3299,10 +3122,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-84.68924179541028</v>
+        <v>45.19028299183483</v>
       </c>
       <c r="C38" t="n">
-        <v>84.70139150942286</v>
+        <v>65.15259605246754</v>
       </c>
     </row>
     <row r="39">
@@ -3310,10 +3133,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-85.82308660150183</v>
+        <v>24.31269761601617</v>
       </c>
       <c r="C39" t="n">
-        <v>84.60680594143518</v>
+        <v>65.15639005819484</v>
       </c>
     </row>
     <row r="40">
@@ -3321,10 +3144,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-61.04211050142293</v>
+        <v>11.27524483629914</v>
       </c>
       <c r="C40" t="n">
-        <v>82.51341441851454</v>
+        <v>64.96265825366113</v>
       </c>
     </row>
     <row r="41">
@@ -3332,10 +3155,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-84.04089388758007</v>
+        <v>10.841009783752</v>
       </c>
       <c r="C41" t="n">
-        <v>79.65945944019306</v>
+        <v>62.14338029520427</v>
       </c>
     </row>
     <row r="42">
@@ -3343,10 +3166,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-84.28564935202758</v>
+        <v>-4.842012338676641</v>
       </c>
       <c r="C42" t="n">
-        <v>79.65701657738121</v>
+        <v>62.16914520129696</v>
       </c>
     </row>
     <row r="43">
@@ -3354,10 +3177,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-84.35302938029501</v>
+        <v>-18.60345030677122</v>
       </c>
       <c r="C43" t="n">
-        <v>77.26801436146594</v>
+        <v>57.58170362530709</v>
       </c>
     </row>
     <row r="44">
@@ -3365,10 +3188,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-87.31195541862357</v>
+        <v>-16.94054657952904</v>
       </c>
       <c r="C44" t="n">
-        <v>73.14115712921065</v>
+        <v>52.37897032467996</v>
       </c>
     </row>
     <row r="45">
@@ -3376,10 +3199,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-63.39542036607464</v>
+        <v>-30.66516236321197</v>
       </c>
       <c r="C45" t="n">
-        <v>72.97786875121899</v>
+        <v>52.38608722065231</v>
       </c>
     </row>
     <row r="46">
@@ -3387,10 +3210,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>88.61141211302932</v>
+        <v>-36.82293199268421</v>
       </c>
       <c r="C46" t="n">
-        <v>70.36946383152373</v>
+        <v>43.91136598076109</v>
       </c>
     </row>
     <row r="47">
@@ -3398,10 +3221,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>70.26861281399957</v>
+        <v>-37.01292816195055</v>
       </c>
       <c r="C47" t="n">
-        <v>70.42589055503699</v>
+        <v>27.64733576306618</v>
       </c>
     </row>
     <row r="48">
@@ -3409,10 +3232,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>67.73878451444671</v>
+        <v>-44.05804052095455</v>
       </c>
       <c r="C48" t="n">
-        <v>70.50822690144841</v>
+        <v>28.28893727112809</v>
       </c>
     </row>
     <row r="49">
@@ -3420,10 +3243,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>44.82652706394076</v>
+        <v>-49.67348972667541</v>
       </c>
       <c r="C49" t="n">
-        <v>71.28620748821486</v>
+        <v>11.43748248744768</v>
       </c>
     </row>
     <row r="50">
@@ -3431,10 +3254,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-89.78265258216364</v>
+        <v>-49.49867275875489</v>
       </c>
       <c r="C50" t="n">
-        <v>72.95020739302868</v>
+        <v>-3.297218908709971</v>
       </c>
     </row>
     <row r="51">
@@ -3442,10 +3265,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-85.12154577825811</v>
+        <v>-55.3259108236891</v>
       </c>
       <c r="C51" t="n">
-        <v>72.22250429894777</v>
+        <v>-2.976055734777383</v>
       </c>
     </row>
     <row r="52">
@@ -3453,10 +3276,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-77.31921665362906</v>
+        <v>-56.13878475904117</v>
       </c>
       <c r="C52" t="n">
-        <v>72.16507109984735</v>
+        <v>-12.44143289842254</v>
       </c>
     </row>
     <row r="53">
@@ -3464,10 +3287,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-77.31023038001956</v>
+        <v>-56.49498594889496</v>
       </c>
       <c r="C53" t="n">
-        <v>72.39508583110597</v>
+        <v>-20.270296560691</v>
       </c>
     </row>
     <row r="54">
@@ -3475,10 +3298,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-77.34060372662948</v>
+        <v>-54.72823776855105</v>
       </c>
       <c r="C54" t="n">
-        <v>72.77409874233992</v>
+        <v>-20.58407834029112</v>
       </c>
     </row>
     <row r="55">
@@ -3486,10 +3309,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-77.21878455842729</v>
+        <v>-54.37497308562664</v>
       </c>
       <c r="C55" t="n">
-        <v>72.71989952002684</v>
+        <v>-23.69879208882183</v>
       </c>
     </row>
     <row r="56">
@@ -3497,10 +3320,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-77.11629199877675</v>
+        <v>-53.88707663213797</v>
       </c>
       <c r="C56" t="n">
-        <v>73.19777349149464</v>
+        <v>-31.29798653846589</v>
       </c>
     </row>
     <row r="57">
@@ -3508,10 +3331,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-77.13160461658069</v>
+        <v>-53.91105881361477</v>
       </c>
       <c r="C57" t="n">
-        <v>73.70507755799487</v>
+        <v>-31.81877958310031</v>
       </c>
     </row>
     <row r="58">
@@ -3519,10 +3342,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-77.18493255637003</v>
+        <v>-53.59613106748473</v>
       </c>
       <c r="C58" t="n">
-        <v>73.9169419797099</v>
+        <v>-35.22239792650911</v>
       </c>
     </row>
     <row r="59">
@@ -3530,10 +3353,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-77.76390570272794</v>
+        <v>-53.83617338921148</v>
       </c>
       <c r="C59" t="n">
-        <v>72.33266640929173</v>
+        <v>-38.06707700133763</v>
       </c>
     </row>
     <row r="60">
@@ -3541,10 +3364,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-77.78670106548103</v>
+        <v>-54.48923118567249</v>
       </c>
       <c r="C60" t="n">
-        <v>72.03787610138731</v>
+        <v>-38.07515284608602</v>
       </c>
     </row>
     <row r="61">
@@ -3552,10 +3375,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-77.67806660499839</v>
+        <v>-54.30418217298171</v>
       </c>
       <c r="C61" t="n">
-        <v>72.15595611021008</v>
+        <v>-39.11485837909118</v>
       </c>
     </row>
     <row r="62">
@@ -3563,10 +3386,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-77.67587406057339</v>
+        <v>-55.75592789731905</v>
       </c>
       <c r="C62" t="n">
-        <v>72.60030665178175</v>
+        <v>-38.43427012066498</v>
       </c>
     </row>
     <row r="63">
@@ -3574,10 +3397,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-77.46432948396307</v>
+        <v>-56.93325252917329</v>
       </c>
       <c r="C63" t="n">
-        <v>74.37675850814513</v>
+        <v>-37.94484707195522</v>
       </c>
     </row>
     <row r="64">
@@ -3585,10 +3408,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-77.47689222901693</v>
+        <v>-56.60454692617016</v>
       </c>
       <c r="C64" t="n">
-        <v>77.68534693682189</v>
+        <v>-39.80507052433335</v>
       </c>
     </row>
     <row r="65">
@@ -3596,10 +3419,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>38.05161807774924</v>
+        <v>-57.22928995381007</v>
       </c>
       <c r="C65" t="n">
-        <v>77.96732629706506</v>
+        <v>-39.56589011578822</v>
       </c>
     </row>
     <row r="66">
@@ -3607,10 +3430,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>43.4931913256011</v>
+        <v>-58.05953726894734</v>
       </c>
       <c r="C66" t="n">
-        <v>84.97801061837897</v>
+        <v>-39.24319727735885</v>
       </c>
     </row>
     <row r="67">
@@ -3618,10 +3441,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>83.66072380952143</v>
+        <v>-57.86046982725096</v>
       </c>
       <c r="C67" t="n">
-        <v>87.68011466156906</v>
+        <v>-38.7896826090613</v>
       </c>
     </row>
     <row r="68">
@@ -3629,10 +3452,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-76.95874139758349</v>
+        <v>-59.02890576606126</v>
       </c>
       <c r="C68" t="n">
-        <v>87.38298170248954</v>
+        <v>-43.33819750066107</v>
       </c>
     </row>
     <row r="69">
@@ -3640,10 +3463,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>89.4901396273571</v>
+        <v>-60.09747542100254</v>
       </c>
       <c r="C69" t="n">
-        <v>79.53596771892694</v>
+        <v>-43.16381793576182</v>
       </c>
     </row>
     <row r="70">
@@ -3651,10 +3474,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>89.72736661153667</v>
+        <v>-60.92048187136086</v>
       </c>
       <c r="C70" t="n">
-        <v>63.74297105203106</v>
+        <v>-42.36807699324409</v>
       </c>
     </row>
     <row r="71">
@@ -3662,10 +3485,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>85.38949403249578</v>
+        <v>-60.37269713797011</v>
       </c>
       <c r="C71" t="n">
-        <v>63.97092118991472</v>
+        <v>-43.25512352570063</v>
       </c>
     </row>
     <row r="72">
@@ -3673,10 +3496,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>89.51551059112104</v>
+        <v>-60.51449852365887</v>
       </c>
       <c r="C72" t="n">
-        <v>45.19028299183483</v>
+        <v>-43.26100811364081</v>
       </c>
     </row>
     <row r="73">
@@ -3684,10 +3507,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>89.42994031161872</v>
+        <v>-60.28615443317663</v>
       </c>
       <c r="C73" t="n">
-        <v>24.31269761601617</v>
+        <v>-44.60083841040729</v>
       </c>
     </row>
     <row r="74">
@@ -3695,10 +3518,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>89.00614830927343</v>
+        <v>-60.49175626213652</v>
       </c>
       <c r="C74" t="n">
-        <v>26.12120720864266</v>
+        <v>-45.71296777953222</v>
       </c>
     </row>
     <row r="75">
@@ -3706,10 +3529,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-70.83911862890865</v>
+        <v>-59.63992297867269</v>
       </c>
       <c r="C75" t="n">
-        <v>10.841009783752</v>
+        <v>-46.57795403578247</v>
       </c>
     </row>
     <row r="76">
@@ -3717,10 +3540,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-71.14704726914813</v>
+        <v>-59.49455312142811</v>
       </c>
       <c r="C76" t="n">
-        <v>-4.842012338676641</v>
+        <v>-46.60620437511798</v>
       </c>
     </row>
     <row r="77">
@@ -3728,10 +3551,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>88.85080745228696</v>
+        <v>-58.76241577384378</v>
       </c>
       <c r="C77" t="n">
-        <v>-4.275492223236708</v>
+        <v>-47.17224410586864</v>
       </c>
     </row>
     <row r="78">
@@ -3739,10 +3562,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>89.11811822192438</v>
+        <v>-56.7678593625947</v>
       </c>
       <c r="C78" t="n">
-        <v>-16.94054657952904</v>
+        <v>-45.64871563141394</v>
       </c>
     </row>
     <row r="79">
@@ -3750,10 +3573,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>77.50592568079951</v>
+        <v>-56.90155567402365</v>
       </c>
       <c r="C79" t="n">
-        <v>-30.66516236321197</v>
+        <v>-46.0173925049147</v>
       </c>
     </row>
     <row r="80">
@@ -3761,10 +3584,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>41.91841999456282</v>
+        <v>-56.77479001994894</v>
       </c>
       <c r="C80" t="n">
-        <v>-36.82293199268421</v>
+        <v>-41.45160150785963</v>
       </c>
     </row>
     <row r="81">
@@ -3772,10 +3595,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>81.93185389515287</v>
+        <v>-56.89200566839352</v>
       </c>
       <c r="C81" t="n">
-        <v>-37.01292816195055</v>
+        <v>-31.16207707291913</v>
       </c>
     </row>
     <row r="82">
@@ -3783,10 +3606,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>81.98968215601745</v>
+        <v>-55.82032387379344</v>
       </c>
       <c r="C82" t="n">
-        <v>-44.05804052095455</v>
+        <v>-30.3122567016321</v>
       </c>
     </row>
     <row r="83">
@@ -3794,10 +3617,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>52.01293662836849</v>
+        <v>-50.59823094093768</v>
       </c>
       <c r="C83" t="n">
-        <v>-49.67348972667541</v>
+        <v>-3.21245583130569</v>
       </c>
     </row>
     <row r="84">
@@ -3805,10 +3628,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>41.25399837284752</v>
+        <v>-50.54178598575584</v>
       </c>
       <c r="C84" t="n">
-        <v>-49.49867275875489</v>
+        <v>26.57534717209893</v>
       </c>
     </row>
     <row r="85">
@@ -3816,10 +3639,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-38.81514114872234</v>
+        <v>-40.52734810960266</v>
       </c>
       <c r="C85" t="n">
-        <v>-55.70034027205391</v>
+        <v>29.55111970620579</v>
       </c>
     </row>
     <row r="86">
@@ -3827,10 +3650,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>24.45284047869587</v>
+        <v>-10.45512242914876</v>
       </c>
       <c r="C86" t="n">
-        <v>-56.13878475904117</v>
+        <v>54.52972304373159</v>
       </c>
     </row>
     <row r="87">
@@ -3838,10 +3661,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>21.92079954087194</v>
+        <v>-7.660194781110361</v>
       </c>
       <c r="C87" t="n">
-        <v>-56.49498594889496</v>
+        <v>82.65755801026029</v>
       </c>
     </row>
     <row r="88">
@@ -3849,10 +3672,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>89.1454038944634</v>
+        <v>53.88128965167385</v>
       </c>
       <c r="C88" t="n">
-        <v>-54.37497308562664</v>
+        <v>82.51025543309419</v>
       </c>
     </row>
     <row r="89">
@@ -3860,10 +3683,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>88.95642520361689</v>
+        <v>78.48806706297476</v>
       </c>
       <c r="C89" t="n">
-        <v>-53.97708523142407</v>
+        <v>84.99358918469561</v>
       </c>
     </row>
     <row r="90">
@@ -3871,10 +3694,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>88.63843110356285</v>
+        <v>78.18839744558396</v>
       </c>
       <c r="C90" t="n">
-        <v>-53.88707663213797</v>
+        <v>75.69945889717621</v>
       </c>
     </row>
     <row r="91">
@@ -3882,10 +3705,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-45.4874291046165</v>
+        <v>70.27012510660329</v>
       </c>
       <c r="C91" t="n">
-        <v>-53.59613106748473</v>
+        <v>75.61221219819895</v>
       </c>
     </row>
     <row r="92">
@@ -3893,10 +3716,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-45.73049873098867</v>
+        <v>61.7582753809925</v>
       </c>
       <c r="C92" t="n">
-        <v>-54.27273116796327</v>
+        <v>74.1327914895423</v>
       </c>
     </row>
     <row r="93">
@@ -3904,10 +3727,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-53.88941772687271</v>
+        <v>66.49723245109161</v>
       </c>
       <c r="C93" t="n">
-        <v>-54.48923118567249</v>
+        <v>74.13344211975621</v>
       </c>
     </row>
     <row r="94">
@@ -3915,10 +3738,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-56.78533216988899</v>
+        <v>68.82105777871702</v>
       </c>
       <c r="C94" t="n">
-        <v>-54.30418217298171</v>
+        <v>73.97001847111385</v>
       </c>
     </row>
     <row r="95">
@@ -3926,10 +3749,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-59.62395408235473</v>
+        <v>70.16257475337369</v>
       </c>
       <c r="C95" t="n">
-        <v>-56.02891314717306</v>
+        <v>74.22563233748924</v>
       </c>
     </row>
     <row r="96">
@@ -3937,10 +3760,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-59.33017724688996</v>
+        <v>70.26876433661938</v>
       </c>
       <c r="C96" t="n">
-        <v>-56.93325252917329</v>
+        <v>74.0811354513845</v>
       </c>
     </row>
     <row r="97">
@@ -3948,10 +3771,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-59.57320160089191</v>
+        <v>76.47346278969317</v>
       </c>
       <c r="C97" t="n">
-        <v>-56.60454692617016</v>
+        <v>74.09288467912849</v>
       </c>
     </row>
     <row r="98">
@@ -3959,10 +3782,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-60.13409611815524</v>
+        <v>82.99633547558274</v>
       </c>
       <c r="C98" t="n">
-        <v>-57.39496519100906</v>
+        <v>74.16868331635011</v>
       </c>
     </row>
     <row r="99">
@@ -3970,10 +3793,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-61.63547201096802</v>
+        <v>83.02114220327694</v>
       </c>
       <c r="C99" t="n">
-        <v>-58.05953726894734</v>
+        <v>74.99789825461565</v>
       </c>
     </row>
     <row r="100">
@@ -3981,10 +3804,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-62.35769450918642</v>
+        <v>86.60855461686238</v>
       </c>
       <c r="C100" t="n">
-        <v>-57.86046982725096</v>
+        <v>75.18129457303718</v>
       </c>
     </row>
     <row r="101">
@@ -3992,10 +3815,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-62.64977252860504</v>
+        <v>89.35686014333608</v>
       </c>
       <c r="C101" t="n">
-        <v>-59.0354168782392</v>
+        <v>79.79289382716382</v>
       </c>
     </row>
     <row r="102">
@@ -4003,10 +3826,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-62.63162081558031</v>
+        <v>89.35686014333608</v>
       </c>
       <c r="C102" t="n">
-        <v>-59.0354168782392</v>
+        <v>79.79289382716382</v>
       </c>
     </row>
   </sheetData>
@@ -4014,7 +3837,1776 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_A</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_B</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_AB_midpoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-51.80318053199411</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-51.80318053199411</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59.90869865604825</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18.09229564377912</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-61.46703709457571</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-61.46703709457571</v>
+      </c>
+      <c r="H2" t="n">
+        <v>55.59793617679009</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.631082362310089</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-51.78350232992381</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-60.39626240192288</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-50.18643175523972</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-60.35273336721555</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-50.15061074226291</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-59.6676692159724</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-48.56160335337678</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>-59.65653072920541</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-48.52956589081603</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>-59.34356632275733</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-46.76177334592982</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-59.32839774794194</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-46.73320175808243</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>-58.59352955650728</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-46.0298502276587</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-58.62511776863162</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-46.06918106878895</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>-58.03465996546419</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-45.63195722976836</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-58.04555394867529</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-45.61010472998542</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-56.99071163105327</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-45.45241287215084</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-56.93047325166026</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-45.35929253678979</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>-55.09912329187497</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-43.91203595449601</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-55.00995755467203</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-43.83589396631145</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>-52.99485581265866</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-42.2162879168136</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>-52.99319604075563</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-41.95703779563953</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-50.71883216945132</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-40.08895228430933</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>-50.67331936905481</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-39.97404278969634</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>-48.25591308015327</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-38.82708944509206</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>-48.31902223901791</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-38.87923288263317</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-46.11769650536742</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-37.27456263342322</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>-46.15616608860014</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-37.25103263320234</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>-44.06562839667404</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-35.06382404874029</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>-44.07422025886326</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-35.07339618602236</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>-41.24705587874876</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-32.57185632950313</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>-41.13227984873272</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-32.52030449343874</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>-38.52454873771953</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-29.80112795823715</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>-38.61748186162546</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-29.80954346277509</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>-34.81384351854478</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-25.90511447781992</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>-34.79587723900159</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-25.7872529024531</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>-30.13559588172878</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-21.73937150672947</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>-30.08076844890179</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-21.53686508741237</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>-25.20387626459213</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-17.43822883426093</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>-25.03919253986573</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-17.29218091532438</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>-19.82945580280449</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-11.88024807515913</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>-19.63584828534095</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-11.36350844844438</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>-14.48957188368104</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-6.431856228652829</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>-14.4139013013073</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-6.202773299271857</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>-9.357766205442497</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-1.153420687143856</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>-9.376493610535716</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-1.214163770580678</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>-5.121627201280852</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.066644226087668</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>-5.056368195638481</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.070658964309276</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>-0.6540464050746339</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>8.043772986087253</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>-0.6260345194517821</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>8.059723091563455</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>2.808386833040343</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>12.83516090789035</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>2.70990905116807</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>12.94163981531704</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>5.608153704422985</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>18.07518749225584</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>5.62412376142222</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>18.10940379530239</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>8.587916928099689</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>22.61731692869309</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>8.674247796520488</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>22.60511010147236</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>10.80097270078966</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>26.66793337904327</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>11.16352645055181</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>26.74941371589443</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>12.78196724714571</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>30.63303407818168</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>12.79768342455832</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>30.49799342350617</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>15.54313883573661</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>34.31862363399209</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>15.56506418156397</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>34.38758315423194</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>19.61254749678467</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>38.25651732996343</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>19.52485756767345</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>38.24144923920342</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>23.37229978705807</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>42.04711831099664</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>23.51341399036555</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>41.86458034699543</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>28.11438037195779</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>45.60719257237842</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>27.99775723375658</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>45.67784189338729</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>32.00033267238048</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>49.17289985067632</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>31.92949651229637</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>49.31336246705777</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>35.80411257476839</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>52.64653703586227</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>35.81891492387312</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>52.7763175634585</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>38.34543953130619</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>54.68642330773207</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>38.26167453254294</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>54.68335487911473</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>40.56462600303596</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>55.7322745983364</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>40.66069310458353</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>55.74417481620788</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>42.25060395038757</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>56.55681267212036</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>42.26937021895847</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>56.6559831065701</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>43.94130013991276</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>57.51319836990207</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>44.01899730651962</v>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>57.4732531084092</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>44.9726202798773</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>58.1069799831435</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>44.94234526278092</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>58.15772246370511</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>45.62186510420715</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>59.09654703024889</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>45.55239389219958</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>59.15828661516224</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>46.15650167554818</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>59.55821863145297</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>46.16893297771784</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>59.59322461990674</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>46.93947699985488</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>60.09876964548327</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>46.84902387764598</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>60.03891958485107</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>48.30757663730226</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>60.55204485555578</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>48.42835387580413</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>60.5211351077205</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>49.22905991679443</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>60.95730535215699</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>49.45493016703621</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>60.97345691424738</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>50.50591200083063</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>61.32212834970434</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>50.47947251397041</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>61.7005159992502</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>52.04553841721323</v>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>61.52416920982368</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>51.97512797990345</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>61.55548306239045</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>52.67803575308442</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>61.14546478911952</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>52.69749306398862</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>61.05320833994458</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>53.56361559011888</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>60.74510376320237</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>53.6396731505487</v>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>60.715739953488</v>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>54.11147026653788</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>59.92395184476354</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>54.14098818792881</v>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>59.90869865604825</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>55.14008742989149</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>55.16812872180337</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>55.59793617679009</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4045,10 +5637,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-27.24701149164325</v>
+        <v>-51.80318053199411</v>
       </c>
       <c r="C2" t="n">
-        <v>-82.0079862808356</v>
+        <v>-61.46703709457571</v>
       </c>
     </row>
     <row r="3">
@@ -4056,10 +5648,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-27.71421393469612</v>
+        <v>-51.78350232992381</v>
       </c>
       <c r="C3" t="n">
-        <v>-82.00730248902985</v>
+        <v>-60.39626240192288</v>
       </c>
     </row>
     <row r="4">
@@ -4067,10 +5659,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-26.76524035526542</v>
+        <v>-50.15061074226291</v>
       </c>
       <c r="C4" t="n">
-        <v>-81.80912924742638</v>
+        <v>-59.6676692159724</v>
       </c>
     </row>
     <row r="5">
@@ -4078,10 +5670,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-25.22142446537055</v>
+        <v>-48.56160335337678</v>
       </c>
       <c r="C5" t="n">
-        <v>-81.69517468815165</v>
+        <v>-59.65653072920541</v>
       </c>
     </row>
     <row r="6">
@@ -4089,10 +5681,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-78.8392748588783</v>
+        <v>-48.52956589081603</v>
       </c>
       <c r="C6" t="n">
-        <v>-81.57516161243292</v>
+        <v>-59.34356632275733</v>
       </c>
     </row>
     <row r="7">
@@ -4100,10 +5692,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-78.56854341396132</v>
+        <v>-46.73320175808243</v>
       </c>
       <c r="C7" t="n">
-        <v>-81.57471438116717</v>
+        <v>-58.59352955650728</v>
       </c>
     </row>
     <row r="8">
@@ -4111,10 +5703,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-58.75132688699567</v>
+        <v>-46.0298502276587</v>
       </c>
       <c r="C8" t="n">
-        <v>-81.45155529979498</v>
+        <v>-58.62511776863162</v>
       </c>
     </row>
     <row r="9">
@@ -4122,10 +5714,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-59.10218192324049</v>
+        <v>-46.06918106878895</v>
       </c>
       <c r="C9" t="n">
-        <v>53.41396301187786</v>
+        <v>-58.03465996546419</v>
       </c>
     </row>
     <row r="10">
@@ -4133,10 +5725,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-49.9043615335646</v>
+        <v>-45.63195722976836</v>
       </c>
       <c r="C10" t="n">
-        <v>53.42514265622296</v>
+        <v>-56.99071163105327</v>
       </c>
     </row>
     <row r="11">
@@ -4144,10 +5736,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-33.10420213787454</v>
+        <v>-45.45241287215084</v>
       </c>
       <c r="C11" t="n">
-        <v>54.32029389240294</v>
+        <v>-56.93047325166026</v>
       </c>
     </row>
     <row r="12">
@@ -4155,10 +5747,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-78.33391095861077</v>
+        <v>-45.35929253678979</v>
       </c>
       <c r="C12" t="n">
-        <v>56.82947939311103</v>
+        <v>-55.00995755467203</v>
       </c>
     </row>
     <row r="13">
@@ -4166,10 +5758,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-59.24685734102293</v>
+        <v>-43.91203595449601</v>
       </c>
       <c r="C13" t="n">
-        <v>57.04063897141344</v>
+        <v>-52.99485581265866</v>
       </c>
     </row>
     <row r="14">
@@ -4177,10 +5769,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-77.59975552318537</v>
+        <v>-42.2162879168136</v>
       </c>
       <c r="C14" t="n">
-        <v>57.77465642341078</v>
+        <v>-52.99319604075563</v>
       </c>
     </row>
     <row r="15">
@@ -4188,10 +5780,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-79.99737711633006</v>
+        <v>-41.95703779563953</v>
       </c>
       <c r="C15" t="n">
-        <v>57.37883155576569</v>
+        <v>-50.67331936905481</v>
       </c>
     </row>
     <row r="16">
@@ -4199,10 +5791,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-78.80359119296955</v>
+        <v>-40.08895228430933</v>
       </c>
       <c r="C16" t="n">
-        <v>57.73416489385821</v>
+        <v>-48.25591308015327</v>
       </c>
     </row>
     <row r="17">
@@ -4210,10 +5802,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-55.41633267986536</v>
+        <v>-38.82708944509206</v>
       </c>
       <c r="C17" t="n">
-        <v>55.61579046102752</v>
+        <v>-48.31902223901791</v>
       </c>
     </row>
     <row r="18">
@@ -4221,10 +5813,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-81.42245540114861</v>
+        <v>-38.87923288263317</v>
       </c>
       <c r="C18" t="n">
-        <v>52.67779982720997</v>
+        <v>-46.15616608860014</v>
       </c>
     </row>
     <row r="19">
@@ -4232,10 +5824,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-87.2459523577465</v>
+        <v>-37.27456263342322</v>
       </c>
       <c r="C19" t="n">
-        <v>52.84435532820854</v>
+        <v>-44.06562839667404</v>
       </c>
     </row>
     <row r="20">
@@ -4243,10 +5835,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-11.69677520262162</v>
+        <v>-35.06382404874029</v>
       </c>
       <c r="C20" t="n">
-        <v>50.67529895889301</v>
+        <v>-44.07422025886326</v>
       </c>
     </row>
     <row r="21">
@@ -4254,10 +5846,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-11.58442146996098</v>
+        <v>-35.07339618602236</v>
       </c>
       <c r="C21" t="n">
-        <v>-74.85337537231956</v>
+        <v>-41.13227984873272</v>
       </c>
     </row>
     <row r="22">
@@ -4265,10 +5857,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-27.27609947173637</v>
+        <v>-32.57185632950313</v>
       </c>
       <c r="C22" t="n">
-        <v>-72.84662589009186</v>
+        <v>-38.52454873771953</v>
       </c>
     </row>
     <row r="23">
@@ -4276,10 +5868,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-26.1632764031073</v>
+        <v>-29.80112795823715</v>
       </c>
       <c r="C23" t="n">
-        <v>-72.84065127053053</v>
+        <v>-38.61748186162546</v>
       </c>
     </row>
     <row r="24">
@@ -4287,10 +5879,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-25.39059591047164</v>
+        <v>-29.80954346277509</v>
       </c>
       <c r="C24" t="n">
-        <v>-72.57104310810787</v>
+        <v>-34.79587723900159</v>
       </c>
     </row>
     <row r="25">
@@ -4298,10 +5890,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-80.60205464287586</v>
+        <v>-25.90511447781992</v>
       </c>
       <c r="C25" t="n">
-        <v>-32.14807901750866</v>
+        <v>-30.13559588172878</v>
       </c>
     </row>
     <row r="26">
@@ -4309,10 +5901,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-80.12461510586019</v>
+        <v>-25.7872529024531</v>
       </c>
       <c r="C26" t="n">
-        <v>-32.14688005143259</v>
+        <v>-30.08076844890179</v>
       </c>
     </row>
     <row r="27">
@@ -4320,10 +5912,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-58.82110649822511</v>
+        <v>-21.53686508741237</v>
       </c>
       <c r="C27" t="n">
-        <v>-24.92676187557425</v>
+        <v>-25.03919253986573</v>
       </c>
     </row>
     <row r="28">
@@ -4331,10 +5923,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-79.8026394270762</v>
+        <v>-17.43822883426093</v>
       </c>
       <c r="C28" t="n">
-        <v>-39.87867990328779</v>
+        <v>-19.82945580280449</v>
       </c>
     </row>
     <row r="29">
@@ -4342,10 +5934,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-79.86757538089562</v>
+        <v>-17.29218091532438</v>
       </c>
       <c r="C29" t="n">
-        <v>-39.88023072839471</v>
+        <v>-19.63584828534095</v>
       </c>
     </row>
     <row r="30">
@@ -4353,10 +5945,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-80.10696396949957</v>
+        <v>-11.36350844844438</v>
       </c>
       <c r="C30" t="n">
-        <v>-49.20342565270242</v>
+        <v>-14.4139013013073</v>
       </c>
     </row>
     <row r="31">
@@ -4364,10 +5956,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-80.65342475605237</v>
+        <v>-6.431856228652829</v>
       </c>
       <c r="C31" t="n">
-        <v>-56.91664850468189</v>
+        <v>-9.357766205442497</v>
       </c>
     </row>
     <row r="32">
@@ -4375,10 +5967,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-42.77755366426152</v>
+        <v>-6.202773299271857</v>
       </c>
       <c r="C32" t="n">
-        <v>-56.98800640459991</v>
+        <v>-9.376493610535716</v>
       </c>
     </row>
     <row r="33">
@@ -4386,10 +5978,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-44.24811562751153</v>
+        <v>-1.214163770580678</v>
       </c>
       <c r="C33" t="n">
-        <v>-58.36117811704544</v>
+        <v>-5.056368195638481</v>
       </c>
     </row>
     <row r="34">
@@ -4397,10 +5989,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>72.11364027012476</v>
+        <v>3.066644226087668</v>
       </c>
       <c r="C34" t="n">
-        <v>-56.57951400304759</v>
+        <v>-0.6540464050746339</v>
       </c>
     </row>
     <row r="35">
@@ -4408,10 +6000,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>72.06650021155511</v>
+        <v>3.070658964309276</v>
       </c>
       <c r="C35" t="n">
-        <v>-56.06496894085844</v>
+        <v>2.808386833040343</v>
       </c>
     </row>
     <row r="36">
@@ -4419,10 +6011,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>71.87185299249447</v>
+        <v>8.059723091563455</v>
       </c>
       <c r="C36" t="n">
-        <v>-56.03372841252955</v>
+        <v>2.70990905116807</v>
       </c>
     </row>
     <row r="37">
@@ -4430,10 +6022,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>72.393247747522</v>
+        <v>12.83516090789035</v>
       </c>
       <c r="C37" t="n">
-        <v>-55.84764728955864</v>
+        <v>5.608153704422985</v>
       </c>
     </row>
     <row r="38">
@@ -4441,10 +6033,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>72.4278977090031</v>
+        <v>12.94163981531704</v>
       </c>
       <c r="C38" t="n">
-        <v>-51.80318053199411</v>
+        <v>8.587916928099689</v>
       </c>
     </row>
     <row r="39">
@@ -4452,10 +6044,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>75.04342637639179</v>
+        <v>18.07518749225584</v>
       </c>
       <c r="C39" t="n">
-        <v>-51.78350232992381</v>
+        <v>8.674247796520488</v>
       </c>
     </row>
     <row r="40">
@@ -4463,10 +6055,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>75.11747396184299</v>
+        <v>22.61731692869309</v>
       </c>
       <c r="C40" t="n">
-        <v>-50.18643175523972</v>
+        <v>10.80097270078966</v>
       </c>
     </row>
     <row r="41">
@@ -4474,10 +6066,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>74.02994152696334</v>
+        <v>22.60511010147236</v>
       </c>
       <c r="C41" t="n">
-        <v>-48.56160335337678</v>
+        <v>12.78196724714571</v>
       </c>
     </row>
     <row r="42">
@@ -4485,10 +6077,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>74.12586144454211</v>
+        <v>26.66793337904327</v>
       </c>
       <c r="C42" t="n">
-        <v>-48.52956589081603</v>
+        <v>12.79768342455832</v>
       </c>
     </row>
     <row r="43">
@@ -4496,10 +6088,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>74.13045239267093</v>
+        <v>30.63303407818168</v>
       </c>
       <c r="C43" t="n">
-        <v>-46.73320175808243</v>
+        <v>15.54313883573661</v>
       </c>
     </row>
     <row r="44">
@@ -4507,10 +6099,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>74.85346756032514</v>
+        <v>30.49799342350617</v>
       </c>
       <c r="C44" t="n">
-        <v>-46.0298502276587</v>
+        <v>19.61254749678467</v>
       </c>
     </row>
     <row r="45">
@@ -4518,10 +6110,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>39.58697825535369</v>
+        <v>34.31862363399209</v>
       </c>
       <c r="C45" t="n">
-        <v>-46.06918106878895</v>
+        <v>19.52485756767345</v>
       </c>
     </row>
     <row r="46">
@@ -4529,10 +6121,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>37.47072164546866</v>
+        <v>38.25651732996343</v>
       </c>
       <c r="C46" t="n">
-        <v>-45.61010472998542</v>
+        <v>23.37229978705807</v>
       </c>
     </row>
     <row r="47">
@@ -4540,10 +6132,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>34.5149351992789</v>
+        <v>38.24144923920342</v>
       </c>
       <c r="C47" t="n">
-        <v>-45.45241287215084</v>
+        <v>28.11438037195779</v>
       </c>
     </row>
     <row r="48">
@@ -4551,10 +6143,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>34.36334730421613</v>
+        <v>42.04711831099664</v>
       </c>
       <c r="C48" t="n">
-        <v>-45.35929253678979</v>
+        <v>27.99775723375658</v>
       </c>
     </row>
     <row r="49">
@@ -4562,10 +6154,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>27.11931662980397</v>
+        <v>45.60719257237842</v>
       </c>
       <c r="C49" t="n">
-        <v>-43.83589396631145</v>
+        <v>32.00033267238048</v>
       </c>
     </row>
     <row r="50">
@@ -4573,10 +6165,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>49.54943071577319</v>
+        <v>45.67784189338729</v>
       </c>
       <c r="C50" t="n">
-        <v>-42.2162879168136</v>
+        <v>35.80411257476839</v>
       </c>
     </row>
     <row r="51">
@@ -4584,10 +6176,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>32.52617118091328</v>
+        <v>49.17289985067632</v>
       </c>
       <c r="C51" t="n">
-        <v>-40.08895228430933</v>
+        <v>35.81891492387312</v>
       </c>
     </row>
     <row r="52">
@@ -4595,10 +6187,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>72.28991943552496</v>
+        <v>52.64653703586227</v>
       </c>
       <c r="C52" t="n">
-        <v>-39.97404278969634</v>
+        <v>38.26167453254294</v>
       </c>
     </row>
     <row r="53">
@@ -4606,10 +6198,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>72.30295019141715</v>
+        <v>52.7763175634585</v>
       </c>
       <c r="C53" t="n">
-        <v>-38.82708944509206</v>
+        <v>40.56462600303596</v>
       </c>
     </row>
     <row r="54">
@@ -4617,10 +6209,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>77.09773654687724</v>
+        <v>54.68642330773207</v>
       </c>
       <c r="C54" t="n">
-        <v>-37.27456263342322</v>
+        <v>40.66069310458353</v>
       </c>
     </row>
     <row r="55">
@@ -4628,10 +6220,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>76.99290322088686</v>
+        <v>54.68335487911473</v>
       </c>
       <c r="C55" t="n">
-        <v>-37.25103263320234</v>
+        <v>42.26937021895847</v>
       </c>
     </row>
     <row r="56">
@@ -4639,10 +6231,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>76.87740441374595</v>
+        <v>55.74417481620788</v>
       </c>
       <c r="C56" t="n">
-        <v>-35.07339618602236</v>
+        <v>43.94130013991276</v>
       </c>
     </row>
     <row r="57">
@@ -4650,10 +6242,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>76.87698586429254</v>
+        <v>56.55681267212036</v>
       </c>
       <c r="C57" t="n">
-        <v>-32.57185632950313</v>
+        <v>44.01899730651962</v>
       </c>
     </row>
     <row r="58">
@@ -4661,10 +6253,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>76.90403315504275</v>
+        <v>56.6559831065701</v>
       </c>
       <c r="C58" t="n">
-        <v>-32.52030449343874</v>
+        <v>44.94234526278092</v>
       </c>
     </row>
     <row r="59">
@@ -4672,10 +6264,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>77.45358250513256</v>
+        <v>57.4732531084092</v>
       </c>
       <c r="C59" t="n">
-        <v>-29.80954346277509</v>
+        <v>45.62186510420715</v>
       </c>
     </row>
     <row r="60">
@@ -4683,10 +6275,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>77.42400943065888</v>
+        <v>58.1069799831435</v>
       </c>
       <c r="C60" t="n">
-        <v>-25.90511447781992</v>
+        <v>45.55239389219958</v>
       </c>
     </row>
     <row r="61">
@@ -4694,10 +6286,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>77.2939461386877</v>
+        <v>58.15772246370511</v>
       </c>
       <c r="C61" t="n">
-        <v>-25.7872529024531</v>
+        <v>46.16893297771784</v>
       </c>
     </row>
     <row r="62">
@@ -4705,10 +6297,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>77.28049287932537</v>
+        <v>59.15828661516224</v>
       </c>
       <c r="C62" t="n">
-        <v>-21.53686508741237</v>
+        <v>46.93947699985488</v>
       </c>
     </row>
     <row r="63">
@@ -4716,10 +6308,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>77.08431892560337</v>
+        <v>59.55821863145297</v>
       </c>
       <c r="C63" t="n">
-        <v>-17.43822883426093</v>
+        <v>46.84902387764598</v>
       </c>
     </row>
     <row r="64">
@@ -4727,10 +6319,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>75.78762917837804</v>
+        <v>59.59322461990674</v>
       </c>
       <c r="C64" t="n">
-        <v>-11.88024807515913</v>
+        <v>48.42835387580413</v>
       </c>
     </row>
     <row r="65">
@@ -4738,10 +6330,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-89.50462446151222</v>
+        <v>60.03891958485107</v>
       </c>
       <c r="C65" t="n">
-        <v>-11.36350844844438</v>
+        <v>49.22905991679443</v>
       </c>
     </row>
     <row r="66">
@@ -4749,10 +6341,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-89.60845103642419</v>
+        <v>60.55204485555578</v>
       </c>
       <c r="C66" t="n">
-        <v>-6.431856228652829</v>
+        <v>49.45493016703621</v>
       </c>
     </row>
     <row r="67">
@@ -4760,10 +6352,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-89.62459876993795</v>
+        <v>60.5211351077205</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.153420687143856</v>
+        <v>50.47947251397041</v>
       </c>
     </row>
     <row r="68">
@@ -4771,10 +6363,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-89.88318788076778</v>
+        <v>60.95730535215699</v>
       </c>
       <c r="C68" t="n">
-        <v>-1.214163770580678</v>
+        <v>52.04553841721323</v>
       </c>
     </row>
     <row r="69">
@@ -4782,10 +6374,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-89.98867120795576</v>
+        <v>61.32212834970434</v>
       </c>
       <c r="C69" t="n">
-        <v>3.066644226087668</v>
+        <v>51.97512797990345</v>
       </c>
     </row>
     <row r="70">
@@ -4793,10 +6385,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-89.8687158317839</v>
+        <v>61.7005159992502</v>
       </c>
       <c r="C70" t="n">
-        <v>8.043772986087253</v>
+        <v>52.69749306398862</v>
       </c>
     </row>
     <row r="71">
@@ -4804,10 +6396,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-89.67218402513016</v>
+        <v>61.52416920982368</v>
       </c>
       <c r="C71" t="n">
-        <v>8.059723091563455</v>
+        <v>53.56361559011888</v>
       </c>
     </row>
     <row r="72">
@@ -4815,10 +6407,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-89.25711661216131</v>
+        <v>61.14546478911952</v>
       </c>
       <c r="C72" t="n">
-        <v>12.94163981531704</v>
+        <v>53.6396731505487</v>
       </c>
     </row>
     <row r="73">
@@ -4826,10 +6418,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-89.03857898891896</v>
+        <v>61.05320833994458</v>
       </c>
       <c r="C73" t="n">
-        <v>18.07518749225584</v>
+        <v>54.14098818792881</v>
       </c>
     </row>
     <row r="74">
@@ -4837,10 +6429,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-88.72903007284735</v>
+        <v>60.74510376320237</v>
       </c>
       <c r="C74" t="n">
-        <v>18.10940379530239</v>
+        <v>55.14008742989149</v>
       </c>
     </row>
     <row r="75">
@@ -4848,10 +6440,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-61.52001007329458</v>
+        <v>59.92395184476354</v>
       </c>
       <c r="C75" t="n">
-        <v>22.60511010147236</v>
+        <v>55.59793617679009</v>
       </c>
     </row>
     <row r="76">
@@ -4859,10 +6451,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-59.66427572204423</v>
+        <v>59.90869865604825</v>
       </c>
       <c r="C76" t="n">
-        <v>26.66793337904327</v>
+        <v>55.55496685042692</v>
       </c>
     </row>
     <row r="77">
@@ -4870,10 +6462,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-59.66800665904788</v>
+        <v>58.99153103739605</v>
       </c>
       <c r="C77" t="n">
-        <v>26.74941371589443</v>
+        <v>56.06740990256753</v>
       </c>
     </row>
     <row r="78">
@@ -4881,10 +6473,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-57.3490236787364</v>
+        <v>57.81428667797645</v>
       </c>
       <c r="C78" t="n">
-        <v>30.49799342350617</v>
+        <v>55.75536793515133</v>
       </c>
     </row>
     <row r="79">
@@ -4892,10 +6484,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-57.76320325337384</v>
+        <v>57.85558759468081</v>
       </c>
       <c r="C79" t="n">
-        <v>34.31862363399209</v>
+        <v>55.8275838038704</v>
       </c>
     </row>
     <row r="80">
@@ -4903,10 +6495,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-58.21645833939176</v>
+        <v>57.73078353794273</v>
       </c>
       <c r="C80" t="n">
-        <v>38.25651732996343</v>
+        <v>54.70352338461645</v>
       </c>
     </row>
     <row r="81">
@@ -4914,10 +6506,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-58.26741720900789</v>
+        <v>57.77815478515237</v>
       </c>
       <c r="C81" t="n">
-        <v>38.24144923920342</v>
+        <v>52.0505371141485</v>
       </c>
     </row>
     <row r="82">
@@ -4925,10 +6517,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-58.24776087365491</v>
+        <v>56.88691276476665</v>
       </c>
       <c r="C82" t="n">
-        <v>42.04711831099664</v>
+        <v>51.9523698415065</v>
       </c>
     </row>
     <row r="83">
@@ -4936,10 +6528,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-57.11088197128025</v>
+        <v>55.05961576421534</v>
       </c>
       <c r="C83" t="n">
-        <v>45.60719257237842</v>
+        <v>48.28805688676306</v>
       </c>
     </row>
     <row r="84">
@@ -4947,10 +6539,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-57.11088197128025</v>
+        <v>55.2360067749082</v>
       </c>
       <c r="C84" t="n">
-        <v>45.67784189338729</v>
+        <v>42.12505981916083</v>
       </c>
     </row>
     <row r="85">
@@ -4958,10 +6550,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-81.21893017391483</v>
+        <v>51.10977629147984</v>
       </c>
       <c r="C85" t="n">
-        <v>49.31336246705777</v>
+        <v>42.08883845814257</v>
       </c>
     </row>
     <row r="86">
@@ -4969,10 +6561,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-80.67017041439468</v>
+        <v>46.44266872786214</v>
       </c>
       <c r="C86" t="n">
-        <v>52.64653703586227</v>
+        <v>35.70069198512202</v>
       </c>
     </row>
     <row r="87">
@@ -4980,10 +6572,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-80.66461116301458</v>
+        <v>46.46555976889105</v>
       </c>
       <c r="C87" t="n">
-        <v>52.7763175634585</v>
+        <v>26.58721318264194</v>
       </c>
     </row>
     <row r="88">
@@ -4991,10 +6583,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-80.32404473993003</v>
+        <v>37.17756356793073</v>
       </c>
       <c r="C88" t="n">
-        <v>54.68335487911473</v>
+        <v>26.44772536015477</v>
       </c>
     </row>
     <row r="89">
@@ -5002,10 +6594,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-80.33119262788534</v>
+        <v>23.99173589564041</v>
       </c>
       <c r="C89" t="n">
-        <v>55.7322745983364</v>
+        <v>10.73878197383394</v>
       </c>
     </row>
     <row r="90">
@@ -5013,10 +6605,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-80.01519983448566</v>
+        <v>23.88185220149251</v>
       </c>
       <c r="C90" t="n">
-        <v>55.74417481620788</v>
+        <v>-12.48117164184233</v>
       </c>
     </row>
     <row r="91">
@@ -5024,10 +6616,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-80.27596585850526</v>
+        <v>-4.177297229875817</v>
       </c>
       <c r="C91" t="n">
-        <v>56.6559831065701</v>
+        <v>-12.44590446002954</v>
       </c>
     </row>
     <row r="92">
@@ -5035,10 +6627,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-80.28883723353044</v>
+        <v>-33.10680794132345</v>
       </c>
       <c r="C92" t="n">
-        <v>57.51319836990207</v>
+        <v>-35.86869151584174</v>
       </c>
     </row>
     <row r="93">
@@ -5046,10 +6638,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>51.1709504888766</v>
+        <v>-33.70937010476676</v>
       </c>
       <c r="C93" t="n">
-        <v>58.1069799831435</v>
+        <v>-48.71586707670394</v>
       </c>
     </row>
     <row r="94">
@@ -5057,10 +6649,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>58.30419958244519</v>
+        <v>-52.31184084112201</v>
       </c>
       <c r="C94" t="n">
-        <v>58.15772246370511</v>
+        <v>-48.74057470921156</v>
       </c>
     </row>
     <row r="95">
@@ -5068,10 +6660,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>58.45290674244365</v>
+        <v>-58.44712742583614</v>
       </c>
       <c r="C95" t="n">
-        <v>59.09654703024889</v>
+        <v>-55.34017961320453</v>
       </c>
     </row>
     <row r="96">
@@ -5079,10 +6671,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>58.42750013632796</v>
+        <v>-58.28150023206987</v>
       </c>
       <c r="C96" t="n">
-        <v>59.55821863145297</v>
+        <v>-59.89978321728043</v>
       </c>
     </row>
     <row r="97">
@@ -5090,10 +6682,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>60.77684595242648</v>
+        <v>-59.17059037291597</v>
       </c>
       <c r="C97" t="n">
-        <v>59.59322461990674</v>
+        <v>-59.94781527011695</v>
       </c>
     </row>
     <row r="98">
@@ -5101,10 +6693,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>62.14607570518874</v>
+        <v>-59.51815680151537</v>
       </c>
       <c r="C98" t="n">
-        <v>60.09876964548327</v>
+        <v>-63.5015414251064</v>
       </c>
     </row>
     <row r="99">
@@ -5112,10 +6704,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>63.68895874484254</v>
+        <v>-59.4895429617086</v>
       </c>
       <c r="C99" t="n">
-        <v>60.55204485555578</v>
+        <v>-65.42722326951959</v>
       </c>
     </row>
     <row r="100">
@@ -5123,10 +6715,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>65.0131444404484</v>
+        <v>-60.89690547911166</v>
       </c>
       <c r="C100" t="n">
-        <v>60.5211351077205</v>
+        <v>-65.51020364587157</v>
       </c>
     </row>
     <row r="101">
@@ -5134,10 +6726,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>65.32784711378639</v>
+        <v>-62.88731705959542</v>
       </c>
       <c r="C101" t="n">
-        <v>60.97345691424738</v>
+        <v>-67.74967787545555</v>
       </c>
     </row>
     <row r="102">
@@ -5145,10 +6737,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>66.70273530520451</v>
+        <v>-62.88731705959542</v>
       </c>
       <c r="C102" t="n">
-        <v>60.97345691424738</v>
+        <v>-67.74967787545555</v>
       </c>
     </row>
   </sheetData>
